--- a/centralized/pending/DATA FINANCIADOS.xlsx
+++ b/centralized/pending/DATA FINANCIADOS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="60">
   <si>
     <t>BANCO DE VENEZUELA</t>
   </si>
@@ -187,6 +187,30 @@
   <si>
     <t>nombre</t>
   </si>
+  <si>
+    <t>D1V1030001320</t>
+  </si>
+  <si>
+    <t>K91GB</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO VILLA BOSSIO</t>
+  </si>
+  <si>
+    <t>V15022444</t>
+  </si>
+  <si>
+    <t>CARACAS</t>
+  </si>
+  <si>
+    <t>0424-2752275</t>
+  </si>
+  <si>
+    <t>eduardovilla1980@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBRO EN EFECTIVO </t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4408,9 +4436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S813"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A797" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H813" sqref="H813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59865,10 +59893,59 @@
       </c>
     </row>
     <row r="812" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C812" s="1"/>
-      <c r="D812" s="1"/>
+      <c r="A812" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B812" s="1" t="str">
+        <f>+C812&amp;D812</f>
+        <v>840352461</v>
+      </c>
+      <c r="C812" s="1">
+        <v>84035246</v>
+      </c>
+      <c r="D812" s="1">
+        <v>1</v>
+      </c>
       <c r="E812" s="3"/>
-      <c r="G812" s="3"/>
+      <c r="G812" s="3">
+        <v>225</v>
+      </c>
+      <c r="H812" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I812" s="13">
+        <v>44755</v>
+      </c>
+      <c r="J812" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K812" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L812" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M812" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N812" s="1">
+        <v>84035246</v>
+      </c>
+      <c r="O812" s="1">
+        <v>1</v>
+      </c>
+      <c r="P812" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q812" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R812" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S812" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="813" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C813" s="1"/>
